--- a/zita/coloracion.xlsx
+++ b/zita/coloracion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evazquez\Desktop\form con precios\zita\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evazquez\Desktop\PEDIDOS ARIMEX ONLINE OK\zita\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
     <t>Código</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>ZITA COLOR BLEND  7/0 100ML</t>
   </si>
   <si>
@@ -330,7 +327,10 @@
     <t>Z55</t>
   </si>
   <si>
-    <t xml:space="preserve">ZITA  </t>
+    <t>Linea</t>
+  </si>
+  <si>
+    <t>ZITA COLOR BLEND</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C3" sqref="C3:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -783,15 +783,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -799,10 +799,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -832,10 +832,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -843,10 +843,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>103</v>
@@ -854,10 +854,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -898,10 +898,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>103</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>103</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>103</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>103</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>103</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>103</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
         <v>103</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>103</v>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
         <v>103</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>103</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
@@ -1151,10 +1151,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
         <v>103</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>103</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>103</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>103</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>103</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>103</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
         <v>103</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
         <v>103</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>103</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
         <v>103</v>
@@ -1316,10 +1316,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>103</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
